--- a/dataset/Annual_growth_rate.xlsx
+++ b/dataset/Annual_growth_rate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python project\wqd7001\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152285AE-993B-4C81-9753-BE9D2E0D0B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5A3F27-321F-4749-8550-3BD2D024B662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2948" yWindow="1905" windowWidth="18000" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
-  <si>
-    <t>1984 [YR1984]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>2013 [YR2013]</t>
   </si>
   <si>
-    <t>1975 [YR1975]</t>
-  </si>
-  <si>
     <t>Aggregation method</t>
   </si>
   <si>
@@ -41,18 +35,9 @@
     <t>https://datacatalog.worldbank.org/public-licenses#cc-by</t>
   </si>
   <si>
-    <t>1992 [YR1992]</t>
-  </si>
-  <si>
-    <t>1983 [YR1983]</t>
-  </si>
-  <si>
     <t>2012 [YR2012]</t>
   </si>
   <si>
-    <t>1974 [YR1974]</t>
-  </si>
-  <si>
     <t>2018 [YR2018]</t>
   </si>
   <si>
@@ -65,75 +50,33 @@
     <t>2003 [YR2003]</t>
   </si>
   <si>
-    <t>1965 [YR1965]</t>
-  </si>
-  <si>
-    <t>1997 [YR1997]</t>
-  </si>
-  <si>
     <t>Weighted average</t>
   </si>
   <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
-    <t>1982 [YR1982]</t>
-  </si>
-  <si>
     <t>Annual</t>
   </si>
   <si>
-    <t>1988 [YR1988]</t>
-  </si>
-  <si>
-    <t>1973 [YR1973]</t>
-  </si>
-  <si>
     <t>2017 [YR2017]</t>
   </si>
   <si>
-    <t>1964 [YR1964]</t>
-  </si>
-  <si>
     <t>2008 [YR2008]</t>
   </si>
   <si>
-    <t>1996 [YR1996]</t>
-  </si>
-  <si>
     <t>Annual population growth rate for year t is the exponential rate of growth of midyear population from year t-1 to t, expressed as a percentage . Population is based on the de facto definition of population, which counts all residents regardless of legal status or citizenship.</t>
   </si>
   <si>
-    <t>1987 [YR1987]</t>
-  </si>
-  <si>
     <t>2016 [YR2016]</t>
   </si>
   <si>
-    <t>1978 [YR1978]</t>
-  </si>
-  <si>
-    <t>1963 [YR1963]</t>
-  </si>
-  <si>
     <t>2007 [YR2007]</t>
   </si>
   <si>
-    <t>1995 [YR1995]</t>
-  </si>
-  <si>
-    <t>1969 [YR1969]</t>
-  </si>
-  <si>
     <t>License Type</t>
   </si>
   <si>
-    <t>1986 [YR1986]</t>
-  </si>
-  <si>
-    <t>1977 [YR1977]</t>
-  </si>
-  <si>
     <t>2021 [YR2021]</t>
   </si>
   <si>
@@ -143,37 +86,19 @@
     <t>CC BY-4.0</t>
   </si>
   <si>
-    <t>1968 [YR1968]</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
-    <t>1985 [YR1985]</t>
-  </si>
-  <si>
-    <t>1991 [YR1991]</t>
-  </si>
-  <si>
-    <t>1976 [YR1976]</t>
-  </si>
-  <si>
     <t>2020 [YR2020]</t>
   </si>
   <si>
     <t>Long definition</t>
   </si>
   <si>
-    <t>1967 [YR1967]</t>
-  </si>
-  <si>
     <t>Periodicity</t>
   </si>
   <si>
     <t>2011 [YR2011]</t>
-  </si>
-  <si>
-    <t>1999 [YR1999]</t>
   </si>
   <si>
     <t>Total population growth rates are calculated on the assumption that rate of growth is constant between two points in time. The growth rate is computed using the exponential growth formula:
@@ -185,42 +110,21 @@
     <t>2002 [YR2002]</t>
   </si>
   <si>
-    <t>1990 [YR1990]</t>
-  </si>
-  <si>
     <t>2019 [YR2019]</t>
   </si>
   <si>
     <t>Health: Population: Dynamics</t>
   </si>
   <si>
-    <t>1981 [YR1981]</t>
-  </si>
-  <si>
-    <t>1966 [YR1966]</t>
-  </si>
-  <si>
     <t>2010 [YR2010]</t>
   </si>
   <si>
-    <t>1998 [YR1998]</t>
-  </si>
-  <si>
     <t>Short definition</t>
   </si>
   <si>
-    <t>1972 [YR1972]</t>
-  </si>
-  <si>
     <t>2001 [YR2001]</t>
   </si>
   <si>
-    <t>1989 [YR1989]</t>
-  </si>
-  <si>
-    <t>1980 [YR1980]</t>
-  </si>
-  <si>
     <t>2009 [YR2009]</t>
   </si>
   <si>
@@ -230,9 +134,6 @@
     <t>2015 [YR2015]</t>
   </si>
   <si>
-    <t>1971 [YR1971]</t>
-  </si>
-  <si>
     <t>License URL</t>
   </si>
   <si>
@@ -242,27 +143,15 @@
     <t>Source</t>
   </si>
   <si>
-    <t>1962 [YR1962]</t>
-  </si>
-  <si>
     <t>Annual population growth rate. Population is based on the de facto definition of population, which counts all residents regardless of legal status or citizenship.</t>
   </si>
   <si>
-    <t>1994 [YR1994]</t>
-  </si>
-  <si>
-    <t>1979 [YR1979]</t>
-  </si>
-  <si>
     <t>2023 [YR2023]</t>
   </si>
   <si>
     <t>Indicator Name</t>
   </si>
   <si>
-    <t>1970 [YR1970]</t>
-  </si>
-  <si>
     <t>2014 [YR2014]</t>
   </si>
   <si>
@@ -270,12 +159,6 @@
   </si>
   <si>
     <t>2005 [YR2005]</t>
-  </si>
-  <si>
-    <t>1961 [YR1961]</t>
-  </si>
-  <si>
-    <t>1993 [YR1993]</t>
   </si>
   <si>
     <t>2022 [YR2022]</t>
@@ -625,393 +508,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" t="s">
-        <v>68</v>
-      </c>
       <c r="L1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="P1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="S1" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="T1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="U1" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="V1" t="s">
         <v>18</v>
       </c>
       <c r="W1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="X1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3.0303312772820101</v>
+        <v>2.54459366705921</v>
       </c>
       <c r="B2">
-        <v>3.0420377310178699</v>
+        <v>2.5701435302748501</v>
       </c>
       <c r="C2">
-        <v>3.0189055533857898</v>
+        <v>2.5163474215978301</v>
       </c>
       <c r="D2">
-        <v>2.9467644463862701</v>
+        <v>2.4426064365774902</v>
       </c>
       <c r="E2">
-        <v>2.8460875602346798</v>
+        <v>2.3720084635770999</v>
       </c>
       <c r="F2">
-        <v>2.7045274721521402</v>
+        <v>2.30336382151543</v>
       </c>
       <c r="G2">
-        <v>2.5563365740321502</v>
+        <v>2.2348595535248701</v>
       </c>
       <c r="H2">
-        <v>2.4658997469960302</v>
+        <v>2.1760898040312102</v>
       </c>
       <c r="I2">
-        <v>2.4180235236375398</v>
+        <v>2.0881853201788299</v>
       </c>
       <c r="J2">
-        <v>2.4040994077239302</v>
+        <v>1.9789234138259599</v>
       </c>
       <c r="K2">
-        <v>2.3592659857548499</v>
+        <v>1.7582874032315099</v>
       </c>
       <c r="L2">
-        <v>2.33278300790499</v>
+        <v>1.61104342924472</v>
       </c>
       <c r="M2">
-        <v>2.3879804780329001</v>
+        <v>1.6181313184672901</v>
       </c>
       <c r="N2">
-        <v>2.4335946314377201</v>
+        <v>1.5874398043597699</v>
       </c>
       <c r="O2">
-        <v>2.46392762759129</v>
+        <v>1.5530182714316101</v>
       </c>
       <c r="P2">
-        <v>2.4834126678430901</v>
+        <v>1.4994097236156401</v>
       </c>
       <c r="Q2">
-        <v>2.56007131418141</v>
+        <v>1.4620698661924001</v>
       </c>
       <c r="R2">
-        <v>2.6247956383658102</v>
+        <v>1.41536933264598</v>
       </c>
       <c r="S2">
-        <v>2.6054447041256101</v>
+        <v>1.31563682048248</v>
       </c>
       <c r="T2">
-        <v>2.6117745517642801</v>
+        <v>1.24151463105699</v>
       </c>
       <c r="U2">
-        <v>2.6056969260148501</v>
+        <v>1.19985962233223</v>
       </c>
       <c r="V2">
-        <v>2.59375588917813</v>
+        <v>1.11985399101</v>
       </c>
       <c r="W2">
-        <v>2.6359677216516499</v>
+        <v>1.07936374148797</v>
       </c>
       <c r="X2">
-        <v>2.7165320542592402</v>
-      </c>
-      <c r="Y2">
-        <v>2.8307768126463801</v>
-      </c>
-      <c r="Z2">
-        <v>2.9389198134176802</v>
-      </c>
-      <c r="AA2">
-        <v>3.0032983828360198</v>
-      </c>
-      <c r="AB2">
-        <v>3.0195625512794799</v>
-      </c>
-      <c r="AC2">
-        <v>2.9546377041229501</v>
-      </c>
-      <c r="AD2">
-        <v>2.8777395694329</v>
-      </c>
-      <c r="AE2">
-        <v>2.8166589072616399</v>
-      </c>
-      <c r="AF2">
-        <v>2.78718569050924</v>
-      </c>
-      <c r="AG2">
-        <v>2.7857776897180599</v>
-      </c>
-      <c r="AH2">
-        <v>2.7881878956764701</v>
-      </c>
-      <c r="AI2">
-        <v>2.7600334463766099</v>
-      </c>
-      <c r="AJ2">
-        <v>2.7051266156806002</v>
-      </c>
-      <c r="AK2">
-        <v>2.67135891326744</v>
-      </c>
-      <c r="AL2">
-        <v>2.6075218621240199</v>
-      </c>
-      <c r="AM2">
-        <v>2.5267217636269299</v>
-      </c>
-      <c r="AN2">
-        <v>2.54459366705921</v>
-      </c>
-      <c r="AO2">
-        <v>2.5701435302748501</v>
-      </c>
-      <c r="AP2">
-        <v>2.5163474215978301</v>
-      </c>
-      <c r="AQ2">
-        <v>2.4426064365774902</v>
-      </c>
-      <c r="AR2">
-        <v>2.3720084635770999</v>
-      </c>
-      <c r="AS2">
-        <v>2.30336382151543</v>
-      </c>
-      <c r="AT2">
-        <v>2.2348595535248701</v>
-      </c>
-      <c r="AU2">
-        <v>2.1760898040312102</v>
-      </c>
-      <c r="AV2">
-        <v>2.0881853201788299</v>
-      </c>
-      <c r="AW2">
-        <v>1.9789234138259599</v>
-      </c>
-      <c r="AX2">
-        <v>1.7582874032315099</v>
-      </c>
-      <c r="AY2">
-        <v>1.61104342924472</v>
-      </c>
-      <c r="AZ2">
-        <v>1.6181313184672901</v>
-      </c>
-      <c r="BA2">
-        <v>1.5874398043597699</v>
-      </c>
-      <c r="BB2">
-        <v>1.5530182714316101</v>
-      </c>
-      <c r="BC2">
-        <v>1.4994097236156401</v>
-      </c>
-      <c r="BD2">
-        <v>1.4620698661924001</v>
-      </c>
-      <c r="BE2">
-        <v>1.41536933264598</v>
-      </c>
-      <c r="BF2">
-        <v>1.31563682048248</v>
-      </c>
-      <c r="BG2">
-        <v>1.24151463105699</v>
-      </c>
-      <c r="BH2">
-        <v>1.19985962233223</v>
-      </c>
-      <c r="BI2">
-        <v>1.11985399101</v>
-      </c>
-      <c r="BJ2">
-        <v>1.07936374148797</v>
-      </c>
-      <c r="BK2">
         <v>1.08520231604055</v>
       </c>
     </row>
@@ -1035,72 +684,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>66</v>
-      </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
